--- a/src/kr/bit/file/bookList.xlsx
+++ b/src/kr/bit/file/bookList.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19395" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="21315" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,85 +31,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>imageUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어록으로 본 이낙연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우스 슈밥의 제4차 산업혁명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우스 슈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람은 어떻게 생각하고 배우고 기억하는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제레드 쿠니 호바스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토네이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각하지 않는 사람들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니콜라스 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청림출판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어록으로 본 이낙연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라우스 슈밥의 제4차 산업혁명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라우스 슈밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람은 어떻게 생각하고 배우고 기억하는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제레드 쿠니 호바스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토네이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생각하지 않는 사람들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니콜라스 카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청림출판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9748964361740</t>
+  </si>
+  <si>
+    <t>9788962805901</t>
+  </si>
+  <si>
+    <t>9791158511746</t>
+  </si>
+  <si>
+    <t>9788935208647</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,11 +157,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +471,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,7 +479,7 @@
     <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -480,79 +492,79 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9748964361740</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9788962805901</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9791158511746</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9788935208647</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/kr/bit/file/bookList.xlsx
+++ b/src/kr/bit/file/bookList.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -51,18 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라우스 슈밥의 제4차 산업혁명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라우스 슈밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BBB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,35 +70,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>니콜라스 카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청림출판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>9748964361740</t>
+  </si>
+  <si>
+    <t>9791158511746</t>
+  </si>
+  <si>
+    <t>9788935208647</t>
+  </si>
+  <si>
     <t>생각하지 않는 사람들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>니콜라스 카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청림출판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>9748964361740</t>
-  </si>
-  <si>
-    <t>9788962805901</t>
-  </si>
-  <si>
-    <t>9791158511746</t>
-  </si>
-  <si>
-    <t>9788935208647</t>
+    <t>Java의 정석 기초편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도우출판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788994492049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,12 +471,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -501,41 +501,41 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -544,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -552,19 +552,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/kr/bit/file/bookList.xlsx
+++ b/src/kr/bit/file/bookList.xlsx
@@ -85,33 +85,33 @@
     <t>isbn</t>
   </si>
   <si>
-    <t>9748964361740</t>
-  </si>
-  <si>
-    <t>9791158511746</t>
-  </si>
-  <si>
-    <t>9788935208647</t>
-  </si>
-  <si>
     <t>생각하지 않는 사람들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java의 정석 기초편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남궁성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도우출판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9788994492049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>클라우스 슈밥의 제4차 산업혁명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우스 슈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn2</t>
+  </si>
+  <si>
+    <t>isbn3</t>
+  </si>
+  <si>
+    <t>isbn4</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,16 +501,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -527,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -544,7 +544,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
